--- a/管理/素材用エクセル/Data.xlsx
+++ b/管理/素材用エクセル/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D165AE01-8401-4AD0-B61E-6A43B5ED3318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453A5C24-BEAF-45C7-BF20-8F9DC0143F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -298,6 +298,20 @@
   </si>
   <si>
     <t>Enemy15</t>
+  </si>
+  <si>
+    <t>空</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このチャンバーには弾がこもっていない</t>
+    <rPh sb="9" eb="10">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -725,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD18CAD-EDE6-4554-B9E1-5C7CD2CA184A}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -839,16 +853,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -880,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -924,48 +938,92 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>9</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A3:B106">
+  <conditionalFormatting sqref="A4:B106">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -985,7 +1043,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L4"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1426,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60973B66-1069-4223-975B-856C2A387ACC}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1489,50 +1547,97 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>-1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-1</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>-1</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>-1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F3">
         <v>-1</v>
       </c>
-      <c r="H2">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I2">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>-1</v>
       </c>
-      <c r="J2">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>-1</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>-1</v>
       </c>
-      <c r="M2">
-        <v>-1</v>
-      </c>
-      <c r="N2">
-        <v>-1</v>
-      </c>
-      <c r="O2">
-        <v>-1</v>
+      <c r="O3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/管理/素材用エクセル/Data.xlsx
+++ b/管理/素材用エクセル/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453A5C24-BEAF-45C7-BF20-8F9DC0143F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A57B12-E39C-458F-8FBA-650C52DFBF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -311,6 +311,10 @@
     <rPh sb="9" eb="10">
       <t>タマ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -741,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD18CAD-EDE6-4554-B9E1-5C7CD2CA184A}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1040,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5867E95E-26C4-4907-8B07-E004BDE1C601}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1061,7 +1065,7 @@
     <col min="12" max="12" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1069,43 +1073,46 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1116,13 +1123,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -1148,8 +1155,11 @@
       <c r="N2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1157,43 +1167,46 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1201,43 +1214,46 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>7</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1245,39 +1261,42 @@
         <v>2</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
     </row>

--- a/管理/素材用エクセル/Data.xlsx
+++ b/管理/素材用エクセル/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A57B12-E39C-458F-8FBA-650C52DFBF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE25C8-5223-4CA9-8BE0-48F75F255190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="99">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -62,60 +62,14 @@
     <t>Value4</t>
   </si>
   <si>
-    <t>基本的な構えから発射される攻撃</t>
-    <rPh sb="0" eb="3">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カマ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッシャ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バレット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Genre</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自身に弾丸を打ち込み決意を高める</t>
-    <rPh sb="0" eb="2">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ダンガン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケツイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バレットガード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DFWeaken</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -137,23 +91,6 @@
   </si>
   <si>
     <t>Explanation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウィークバレット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵を３ターンDF弱体化させる</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジャクタイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -315,6 +252,313 @@
   </si>
   <si>
     <t>Number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バレットS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バレットM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バレットL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炸裂弾</t>
+    <rPh sb="0" eb="3">
+      <t>サクレツダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数撃ちゃ当たるS</t>
+    <rPh sb="0" eb="1">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数撃ちゃ当たるM</t>
+    <rPh sb="0" eb="1">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Random</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cocking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を2Tスタンさせる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を3Tスタンさせる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を1Tスタンさせる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーザーガンM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーザーガンL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムに敵を攻撃する</t>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガードブレイクS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガードブレイクM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガードブレイクL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーザーガンS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェポンブレイクS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェポンブレイクM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェポンブレイクL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に1T防御弱体化を与える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に2T防御弱体化を与える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に3T防御弱体化を与える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に1T攻撃弱体化を与える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に2T攻撃弱体化を与える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に3T攻撃弱体化を与える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイックリロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リロードを行う</t>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コッキングを行う</t>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイックコッキング1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイックコッキング2</t>
+  </si>
+  <si>
+    <t>クイックコッキング3</t>
+  </si>
+  <si>
+    <t>クイックコッキング4</t>
+  </si>
+  <si>
+    <t>Wシューティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の弾をコストを支払わずに使う</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラストバレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンバー内の弾が１つ以下なら強化される</t>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LastBullet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -339,7 +583,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +602,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -373,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,11 +648,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -409,6 +680,20 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -435,6 +720,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -743,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD18CAD-EDE6-4554-B9E1-5C7CD2CA184A}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -759,53 +1049,75 @@
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -848,8 +1160,29 @@
       <c r="N2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -857,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -892,8 +1225,29 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -901,140 +1255,1441 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:B106">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K158">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:T168 S1:W26 E1:P26">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1046,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5867E95E-26C4-4907-8B07-E004BDE1C601}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1067,49 +2722,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -1173,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1220,10 +2875,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1267,10 +2922,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1337,25 +2992,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1364,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -1401,7 +3056,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1433,7 +3088,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1465,7 +3120,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1520,49 +3175,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">

--- a/管理/素材用エクセル/Data.xlsx
+++ b/管理/素材用エクセル/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE25C8-5223-4CA9-8BE0-48F75F255190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BED345-B2CF-49F8-B0A7-032B7C3EB98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="172">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -308,10 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>All</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cocking</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,22 +399,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵に2T防御弱体化を与える</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ボウギョ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ジャクタイカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵に3T防御弱体化を与える</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -451,22 +431,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵に2T攻撃弱体化を与える</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ジャクタイカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵に3T攻撃弱体化を与える</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -509,15 +473,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クイックコッキング2</t>
-  </si>
-  <si>
-    <t>クイックコッキング3</t>
-  </si>
-  <si>
-    <t>クイックコッキング4</t>
-  </si>
-  <si>
     <t>Wシューティング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -558,7 +513,803 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LastBullet</t>
+    <t>Rank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵全体を攻撃する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無限の弾丸</t>
+    <rPh sb="0" eb="2">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンガン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用後、空の弾の代わりにこの弾がセットされる</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大将首</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番HPの多い敵を攻撃する</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番HPの少ない敵を攻撃する</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豆鉄砲</t>
+    <rPh sb="0" eb="3">
+      <t>マメデッポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉切骨断</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホネ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを3消費して攻撃する</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを5消費して攻撃する</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを10消費して攻撃する</t>
+    <rPh sb="5" eb="7">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラッドバレッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴァーミリオンシュート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナライズガン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この攻撃で敵を倒すとより多くポイントが貰える 廃棄</t>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に5T防御弱体化を与える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に5T攻撃弱体化を与える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃棄</t>
+    <rPh sb="0" eb="2">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劣化ウラン弾S</t>
+    <rPh sb="0" eb="2">
+      <t>レッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劣化ウラン弾M</t>
+    <rPh sb="0" eb="2">
+      <t>レッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劣化ウラン弾L</t>
+    <rPh sb="0" eb="2">
+      <t>レッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両対応</t>
+    <rPh sb="0" eb="3">
+      <t>リョウタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に2T攻撃、防御弱体化を与える</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>止まない凶弾</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用後、この弾丸のATが3上がる(この戦闘中)</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダンガン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セントウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貫通弾</t>
+    <rPh sb="0" eb="3">
+      <t>カンツウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の防御を破壊して攻撃する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガードS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガードM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガードL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョバムアーマーS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョバムアーマーM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョバムアーマーL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火薬を多めに</t>
+    <rPh sb="0" eb="2">
+      <t>カヤク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の攻撃をAT+3する</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルタップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリプルタップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クアトロタップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回攻撃する</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回攻撃する</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4回攻撃する</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火薬を多めに、入れ過ぎか？</t>
+    <rPh sb="0" eb="2">
+      <t>カヤク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の攻撃をAT+10する、たまに5ダメージを受ける</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SelfDamage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防菌ゴーグル</t>
+    <rPh sb="0" eb="2">
+      <t>ボウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の攻撃で攻撃弱体にならない</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジャクタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンブレラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の攻撃で防御弱体にならない</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジャクタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の攻撃で状態異常にならない</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ジョウタイイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーフェクトディフェンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入念な下調べ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シタシラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な犠牲</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを3消費する</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Whole</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薔薇の防刃着</t>
+    <rPh sb="0" eb="2">
+      <t>バラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ボウジン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃を受けた時5ダメージ与える</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋼棘の黒鎧</t>
+    <rPh sb="0" eb="1">
+      <t>ハガネ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トゲ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨロイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃を受けた時8ダメージ与える</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎訓練：剛術</t>
+    <rPh sb="0" eb="4">
+      <t>キソクンレン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎訓練：柔術</t>
+    <rPh sb="0" eb="4">
+      <t>キソクンレン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎攻撃力+2 廃棄</t>
+    <rPh sb="8" eb="10">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎防御+2 廃棄</t>
+    <rPh sb="2" eb="4">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オペレートガード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手の攻撃を戦闘中1軽減する</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セントウチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テラー・オブ・ガンファイア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が状態異常になるとその敵を1Tスタンさせる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジョウタイイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経質な暗殺者</t>
+    <rPh sb="0" eb="3">
+      <t>シンケイシツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>アンサツシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の弾丸の代わりにデッキから別のカードが入る</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンガン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘中リロードのコストを1下げる</t>
+    <rPh sb="0" eb="3">
+      <t>セントウチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チューニング・ソニックリボルブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チューニング・マシンガンリボルブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘中コッキングのコストを1下げる</t>
+    <rPh sb="0" eb="3">
+      <t>セントウチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶命の弾丸</t>
+    <rPh sb="0" eb="2">
+      <t>ゼツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンガン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身のHPが30%以下の時、威力が上がる</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応援要請</t>
+    <rPh sb="0" eb="4">
+      <t>オウエンヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎ターンランダムで攻撃、防御が発生する</t>
+    <rPh sb="0" eb="1">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラッドリンカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身でダメージを受ける弾丸を使用した時、ターゲットに同じだけダメージを与える</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダンガン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -566,7 +1317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,8 +1333,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,6 +1379,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -635,7 +1400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,11 +1422,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -680,6 +1451,20 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1033,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD18CAD-EDE6-4554-B9E1-5C7CD2CA184A}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1044,12 +1829,13 @@
     <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="36.375" customWidth="1"/>
-    <col min="4" max="4" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.4">
@@ -1075,31 +1861,37 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" t="s">
-        <v>98</v>
+      <c r="Q1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" t="s">
+        <v>137</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
@@ -1166,6 +1958,12 @@
       <c r="P2" t="s">
         <v>2</v>
       </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
       <c r="S2" t="s">
         <v>2</v>
       </c>
@@ -1207,7 +2005,7 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>0</v>
       </c>
       <c r="J3">
@@ -1229,6 +2027,12 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
@@ -1267,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1291,6 +2095,12 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
@@ -1329,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1353,6 +2163,12 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
@@ -1391,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1415,6 +2231,12 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
@@ -1443,6 +2265,9 @@
       <c r="C7" t="s">
         <v>60</v>
       </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
       <c r="E7">
         <v>5</v>
       </c>
@@ -1453,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1477,6 +2302,12 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
@@ -1506,7 +2337,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1518,23 +2349,23 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -1542,6 +2373,12 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
@@ -1571,7 +2408,7 @@
         <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -1583,23 +2420,23 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>6</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
@@ -1607,6 +2444,12 @@
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
@@ -1633,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1650,11 +2493,11 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" s="7">
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1672,6 +2515,12 @@
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
@@ -1698,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1713,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1737,6 +2586,12 @@
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
@@ -1763,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1778,14 +2633,14 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9</v>
+      </c>
+      <c r="J12">
         <v>3</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
@@ -1802,6 +2657,12 @@
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
@@ -1828,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1843,16 +2704,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
         <v>1</v>
       </c>
+      <c r="I13" s="7">
+        <v>10</v>
+      </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1867,6 +2728,12 @@
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
@@ -1893,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1908,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>11</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1932,6 +2799,12 @@
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
@@ -1958,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -1973,17 +2846,17 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
         <v>0</v>
       </c>
@@ -1997,6 +2870,12 @@
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
@@ -2023,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2038,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2050,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2062,6 +2941,12 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
@@ -2088,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -2103,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>14</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2115,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2127,6 +3012,12 @@
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
@@ -2153,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -2168,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>15</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2180,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2192,6 +3083,12 @@
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
@@ -2215,28 +3112,28 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>16</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2251,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2259,6 +3156,12 @@
       <c r="P19">
         <v>0</v>
       </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
       <c r="S19">
         <v>0</v>
       </c>
@@ -2276,420 +3179,5547 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20" t="s">
         <v>90</v>
       </c>
       <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>30</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7">
+        <v>24</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>27</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>29</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="7">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" s="7">
+        <v>34</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38" s="7">
+        <v>35</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>30</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" s="7">
+        <v>36</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>37</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7">
+        <v>39</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>18</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" s="7">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7">
+        <v>41</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7">
+        <v>42</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" s="7">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="7">
+        <v>44</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" s="7">
+        <v>45</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>25</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7">
+        <v>46</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
+        <v>47</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" s="7">
+        <v>48</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" s="7">
+        <v>49</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" s="7">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" s="7">
+        <v>51</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" s="7">
+        <v>52</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>8</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" s="7">
+        <v>53</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" s="7">
+        <v>54</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58" s="7">
+        <v>55</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" s="7">
+        <v>56</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60" s="7">
+        <v>57</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" s="7">
+        <v>58</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62" s="7">
+        <v>59</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" s="7">
+        <v>60</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64" s="7">
+        <v>61</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>72</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>73</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>74</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>75</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>76</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>77</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>78</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>79</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>80</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>81</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>82</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>83</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>84</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>85</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>86</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>87</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>88</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
         <v>89</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <v>90</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
         <v>91</v>
       </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="I95" s="7">
         <v>92</v>
       </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="I96" s="7">
         <v>93</v>
       </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="7">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
         <v>95</v>
       </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="I99" s="7">
         <v>96</v>
       </c>
-      <c r="D25" t="s">
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7">
         <v>97</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="I101" s="7">
+        <v>98</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="I102" s="7">
+        <v>99</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="I103" s="7">
+        <v>100</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="I104" s="7">
+        <v>101</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="I105" s="7">
+        <v>102</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="I106" s="7">
+        <v>103</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="I107" s="7">
+        <v>104</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="I108" s="7">
+        <v>105</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="I109" s="7">
+        <v>106</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="I110" s="7">
+        <v>107</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="I111" s="7">
+        <v>108</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="I112" s="7">
+        <v>109</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="I113" s="7">
+        <v>110</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="I114" s="7">
+        <v>111</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="I115" s="7">
+        <v>112</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="I116" s="7">
+        <v>113</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="I117" s="7">
+        <v>114</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="I118" s="7">
+        <v>115</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="I119" s="7">
+        <v>116</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="I120" s="7">
+        <v>117</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="I121" s="7">
+        <v>118</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="I122" s="7">
+        <v>119</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="I123" s="7">
+        <v>120</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="I124" s="7">
+        <v>121</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="I125" s="7">
+        <v>122</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="I126" s="7">
+        <v>123</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="I127" s="7">
+        <v>124</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="I128" s="7">
+        <v>125</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="I129" s="7">
+        <v>126</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="I130" s="7">
+        <v>127</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="I131" s="7">
+        <v>128</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="I132" s="7">
+        <v>129</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="I133" s="7">
+        <v>130</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="I134" s="7">
+        <v>131</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="I135" s="7">
+        <v>132</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="I136" s="7">
+        <v>133</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="I137" s="7">
+        <v>134</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="I138" s="7">
+        <v>135</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="I139" s="7">
+        <v>136</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="I140" s="7">
+        <v>137</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="I141" s="7">
+        <v>138</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="I142" s="7">
+        <v>139</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="I143" s="7">
+        <v>140</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="I144" s="7">
+        <v>141</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I145" s="7">
+        <v>142</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I146" s="7">
+        <v>143</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I147" s="7">
+        <v>144</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I148" s="7">
+        <v>145</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I149" s="7">
+        <v>146</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I150" s="7">
+        <v>147</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I151" s="7">
+        <v>148</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I152" s="7">
+        <v>149</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I153" s="7">
+        <v>150</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I154" s="7">
+        <v>151</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>0</v>
+      </c>
+      <c r="V154">
+        <v>0</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I155" s="7">
+        <v>152</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I156" s="7">
+        <v>153</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <v>0</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I157" s="7">
+        <v>154</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <v>0</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I158" s="7">
+        <v>155</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I159" s="7">
+        <v>156</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I160" s="7">
+        <v>157</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I161" s="7">
+        <v>158</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I162" s="7">
+        <v>159</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I163" s="7">
+        <v>160</v>
+      </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
+      <c r="V163">
+        <v>0</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I164" s="7">
+        <v>161</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>0</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I165" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I166" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I167" s="7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I168" s="7">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A4:B106">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="A4:B48 A49:A138 B75:B106 B39:B64">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K158">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="K75:K158 K39:K64 M75:M84 M1:M64">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:T168 S1:W26 E1:P26">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="E1:G18 H2:I17 E19:H28 H18 E29:F29 D38 J165:T168 E32:F35 G29:H35 J1:W64 J75:W164 E75:I168 E36:H64 I18:I64">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F30">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:F31">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/管理/素材用エクセル/Data.xlsx
+++ b/管理/素材用エクセル/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BED345-B2CF-49F8-B0A7-032B7C3EB98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95654A10-5C25-45B4-85D9-C2F43094B4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="190">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -91,37 +91,6 @@
   </si>
   <si>
     <t>Explanation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ザコ1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ザコ2</t>
-  </si>
-  <si>
-    <t>ザコ3</t>
-  </si>
-  <si>
-    <t>テスト用のザコ1だ</t>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト用のザコ2だ</t>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト用のザコ3だ</t>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -147,13 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>守る</t>
-    <rPh sb="0" eb="1">
-      <t>マモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Pattern4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -180,14 +142,6 @@
   </si>
   <si>
     <t>HPFluctuationMinus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ATFluctuationMinus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ATFluctuationPlus</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1310,6 +1264,261 @@
     <rPh sb="35" eb="36">
       <t>アタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FluctuationMinus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FluctuationPlus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Turn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突進</t>
+    <rPh sb="0" eb="2">
+      <t>トッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体制崩し</t>
+    <rPh sb="0" eb="2">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャミング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まるまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガードアタック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寒虫</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心を蝕む虫、群れると強力</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ムシバ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寒さが悪い考えを生む元凶</t>
+    <rPh sb="0" eb="1">
+      <t>サム</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽しい思い出を忘れさせる</t>
+    <rPh sb="0" eb="1">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思い出喰らい</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠慮虫</t>
+    <rPh sb="0" eb="2">
+      <t>エンリョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積極性がなくなる元凶</t>
+    <rPh sb="0" eb="3">
+      <t>セッキョクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力を溜める</t>
+    <rPh sb="0" eb="1">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃弱体化</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御弱体化</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジャクタイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の攻撃が２倍</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリゾーゴン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンドバッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汚い言葉で人を追い詰める</t>
+    <rPh sb="0" eb="1">
+      <t>キタナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトウオウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心喰い虫_赤</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心喰い虫_青</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Floor</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1317,7 +1526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1341,8 +1550,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1385,6 +1610,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1395,12 +1654,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1428,11 +1693,136 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="どちらでもない" xfId="2" builtinId="28"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1820,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD18CAD-EDE6-4554-B9E1-5C7CD2CA184A}">
   <dimension ref="A1:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1861,13 +2251,13 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -1876,22 +2266,22 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="N1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="P1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="R1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
@@ -1988,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2059,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2127,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2195,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -2263,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -2334,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -2405,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -2476,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2547,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2618,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -2689,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2760,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -2831,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -2902,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2973,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -3044,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -3115,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -3186,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -3257,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -3328,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -3399,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -3470,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3538,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3609,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -3680,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -3751,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -3822,10 +4212,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -3893,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -3964,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -4035,10 +4425,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -4106,10 +4496,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -4177,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -4248,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -4319,10 +4709,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -4390,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -4461,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -4532,10 +4922,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4603,10 +4993,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -4674,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -4742,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -4810,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E43">
         <v>8</v>
@@ -4878,10 +5268,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -4949,10 +5339,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -5020,10 +5410,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E46">
         <v>8</v>
@@ -5091,10 +5481,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -5162,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -5233,10 +5623,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -5304,10 +5694,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -5375,10 +5765,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E51">
         <v>4</v>
@@ -5446,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E52">
         <v>8</v>
@@ -5517,10 +5907,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -5588,10 +5978,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -5659,10 +6049,10 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -5730,10 +6120,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -5801,10 +6191,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -5872,10 +6262,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -5940,10 +6330,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -6011,10 +6401,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E60">
         <v>8</v>
@@ -6082,10 +6472,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -6153,10 +6543,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -6224,10 +6614,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -6295,10 +6685,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -8693,33 +9083,33 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:B48 A49:A138 B75:B106 B39:B64">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:K158 K39:K64 M75:M84 M1:M64">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:G18 H2:I17 E19:H28 H18 E29:F29 D38 J165:T168 E32:F35 G29:H35 J1:W64 J75:W164 E75:I168 E36:H64 I18:I64">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8729,28 +9119,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5867E95E-26C4-4907-8B07-E004BDE1C601}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="20.125" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
     <col min="12" max="12" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -8758,10 +9149,10 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -8769,35 +9160,29 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="G1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8816,185 +9201,604 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="14">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14">
+        <v>5</v>
+      </c>
+      <c r="I4" s="14">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>2</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="14">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
+      <c r="I5" s="14">
+        <v>3</v>
+      </c>
+      <c r="J5" s="13">
+        <v>2</v>
+      </c>
+      <c r="K5" s="13">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="14">
+        <v>15</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3</v>
+      </c>
+      <c r="J6" s="13">
+        <v>4</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <v>4</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="14">
+        <v>25</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>3</v>
+      </c>
+      <c r="K8" s="13">
+        <v>5</v>
+      </c>
+      <c r="L8" s="13">
+        <v>3</v>
+      </c>
+      <c r="M8" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="14">
+        <v>25</v>
+      </c>
+      <c r="H9" s="14">
+        <v>5</v>
+      </c>
+      <c r="I9" s="14">
+        <v>3</v>
+      </c>
+      <c r="J9" s="13">
         <v>7</v>
       </c>
-      <c r="K4">
+      <c r="K9" s="13">
+        <v>6</v>
+      </c>
+      <c r="L9" s="13">
         <v>7</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A3:B6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="A3:B10">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9004,10 +9808,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AF5627-C990-49D5-A232-F69BD0020EB1}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9018,166 +9822,713 @@
     <col min="4" max="4" width="38.625" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -9188,10 +10539,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60973B66-1069-4223-975B-856C2A387ACC}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9203,54 +10554,57 @@
     <col min="5" max="5" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9296,19 +10650,22 @@
       <c r="O2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>-1</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -9317,35 +10674,353 @@
         <v>-1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>-1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
         <v>-1</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>-1</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
         <v>-1</v>
       </c>
-      <c r="O3">
-        <v>0</v>
+      <c r="P3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A16:O30 B8:O15 B3:O3 B5:P7">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:G4">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P4">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/管理/素材用エクセル/Data.xlsx
+++ b/管理/素材用エクセル/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95654A10-5C25-45B4-85D9-C2F43094B4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A0AA4-0366-4220-B45F-749B2BC258FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD18CAD-EDE6-4554-B9E1-5C7CD2CA184A}">
   <dimension ref="A1:W168"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -6748,2337 +6748,287 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>72</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>73</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>74</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="7">
-        <v>75</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A79">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>76</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A80">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <v>77</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A81">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <v>78</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A82">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>79</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>80</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A84">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>81</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
-        <v>82</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A86">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>83</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A87">
-        <v>0</v>
-      </c>
-      <c r="I87" s="7">
-        <v>84</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A88">
-        <v>0</v>
-      </c>
-      <c r="I88" s="7">
-        <v>85</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A89">
-        <v>0</v>
-      </c>
-      <c r="I89" s="7">
-        <v>86</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A90">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7">
-        <v>87</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A91">
-        <v>0</v>
-      </c>
-      <c r="I91" s="7">
-        <v>88</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-      <c r="T91">
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A92">
-        <v>0</v>
-      </c>
-      <c r="I92" s="7">
-        <v>89</v>
-      </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A93">
-        <v>0</v>
-      </c>
-      <c r="I93" s="7">
-        <v>90</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A94">
-        <v>0</v>
-      </c>
-      <c r="I94" s="7">
-        <v>91</v>
-      </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A95">
-        <v>0</v>
-      </c>
-      <c r="I95" s="7">
-        <v>92</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A96">
-        <v>0</v>
-      </c>
-      <c r="I96" s="7">
-        <v>93</v>
-      </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <v>0</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <v>0</v>
-      </c>
-      <c r="I97" s="7">
-        <v>94</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>0</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="I98" s="7">
-        <v>95</v>
-      </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
-      <c r="T98">
-        <v>0</v>
-      </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A99">
-        <v>0</v>
-      </c>
-      <c r="I99" s="7">
-        <v>96</v>
-      </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-      <c r="T99">
-        <v>0</v>
-      </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="7">
-        <v>97</v>
-      </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A101">
-        <v>0</v>
-      </c>
-      <c r="I101" s="7">
-        <v>98</v>
-      </c>
-      <c r="S101">
-        <v>0</v>
-      </c>
-      <c r="T101">
-        <v>0</v>
-      </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
-      <c r="V101">
-        <v>0</v>
-      </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A102">
-        <v>0</v>
-      </c>
-      <c r="I102" s="7">
-        <v>99</v>
-      </c>
-      <c r="S102">
-        <v>0</v>
-      </c>
-      <c r="T102">
-        <v>0</v>
-      </c>
-      <c r="U102">
-        <v>0</v>
-      </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="7">
-        <v>100</v>
-      </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
-      <c r="T103">
-        <v>0</v>
-      </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
-      <c r="W103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A104">
-        <v>0</v>
-      </c>
-      <c r="I104" s="7">
-        <v>101</v>
-      </c>
-      <c r="S104">
-        <v>0</v>
-      </c>
-      <c r="T104">
-        <v>0</v>
-      </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-      <c r="V104">
-        <v>0</v>
-      </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A105">
-        <v>0</v>
-      </c>
-      <c r="I105" s="7">
-        <v>102</v>
-      </c>
-      <c r="S105">
-        <v>0</v>
-      </c>
-      <c r="T105">
-        <v>0</v>
-      </c>
-      <c r="U105">
-        <v>0</v>
-      </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A106">
-        <v>0</v>
-      </c>
-      <c r="I106" s="7">
-        <v>103</v>
-      </c>
-      <c r="S106">
-        <v>0</v>
-      </c>
-      <c r="T106">
-        <v>0</v>
-      </c>
-      <c r="U106">
-        <v>0</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A107">
-        <v>0</v>
-      </c>
-      <c r="I107" s="7">
-        <v>104</v>
-      </c>
-      <c r="S107">
-        <v>0</v>
-      </c>
-      <c r="T107">
-        <v>0</v>
-      </c>
-      <c r="U107">
-        <v>0</v>
-      </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A108">
-        <v>0</v>
-      </c>
-      <c r="I108" s="7">
-        <v>105</v>
-      </c>
-      <c r="S108">
-        <v>0</v>
-      </c>
-      <c r="T108">
-        <v>0</v>
-      </c>
-      <c r="U108">
-        <v>0</v>
-      </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A109">
-        <v>0</v>
-      </c>
-      <c r="I109" s="7">
-        <v>106</v>
-      </c>
-      <c r="S109">
-        <v>0</v>
-      </c>
-      <c r="T109">
-        <v>0</v>
-      </c>
-      <c r="U109">
-        <v>0</v>
-      </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A110">
-        <v>0</v>
-      </c>
-      <c r="I110" s="7">
-        <v>107</v>
-      </c>
-      <c r="S110">
-        <v>0</v>
-      </c>
-      <c r="T110">
-        <v>0</v>
-      </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A111">
-        <v>0</v>
-      </c>
-      <c r="I111" s="7">
-        <v>108</v>
-      </c>
-      <c r="S111">
-        <v>0</v>
-      </c>
-      <c r="T111">
-        <v>0</v>
-      </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A112">
-        <v>0</v>
-      </c>
-      <c r="I112" s="7">
-        <v>109</v>
-      </c>
-      <c r="S112">
-        <v>0</v>
-      </c>
-      <c r="T112">
-        <v>0</v>
-      </c>
-      <c r="U112">
-        <v>0</v>
-      </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A113">
-        <v>0</v>
-      </c>
-      <c r="I113" s="7">
-        <v>110</v>
-      </c>
-      <c r="S113">
-        <v>0</v>
-      </c>
-      <c r="T113">
-        <v>0</v>
-      </c>
-      <c r="U113">
-        <v>0</v>
-      </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A114">
-        <v>0</v>
-      </c>
-      <c r="I114" s="7">
-        <v>111</v>
-      </c>
-      <c r="S114">
-        <v>0</v>
-      </c>
-      <c r="T114">
-        <v>0</v>
-      </c>
-      <c r="U114">
-        <v>0</v>
-      </c>
-      <c r="V114">
-        <v>0</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A115">
-        <v>0</v>
-      </c>
-      <c r="I115" s="7">
-        <v>112</v>
-      </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
-      <c r="T115">
-        <v>0</v>
-      </c>
-      <c r="U115">
-        <v>0</v>
-      </c>
-      <c r="V115">
-        <v>0</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A116">
-        <v>0</v>
-      </c>
-      <c r="I116" s="7">
-        <v>113</v>
-      </c>
-      <c r="S116">
-        <v>0</v>
-      </c>
-      <c r="T116">
-        <v>0</v>
-      </c>
-      <c r="U116">
-        <v>0</v>
-      </c>
-      <c r="V116">
-        <v>0</v>
-      </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A117">
-        <v>0</v>
-      </c>
-      <c r="I117" s="7">
-        <v>114</v>
-      </c>
-      <c r="S117">
-        <v>0</v>
-      </c>
-      <c r="T117">
-        <v>0</v>
-      </c>
-      <c r="U117">
-        <v>0</v>
-      </c>
-      <c r="V117">
-        <v>0</v>
-      </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A118">
-        <v>0</v>
-      </c>
-      <c r="I118" s="7">
-        <v>115</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-      <c r="T118">
-        <v>0</v>
-      </c>
-      <c r="U118">
-        <v>0</v>
-      </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A119">
-        <v>0</v>
-      </c>
-      <c r="I119" s="7">
-        <v>116</v>
-      </c>
-      <c r="S119">
-        <v>0</v>
-      </c>
-      <c r="T119">
-        <v>0</v>
-      </c>
-      <c r="U119">
-        <v>0</v>
-      </c>
-      <c r="V119">
-        <v>0</v>
-      </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A120">
-        <v>0</v>
-      </c>
-      <c r="I120" s="7">
-        <v>117</v>
-      </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
-      <c r="T120">
-        <v>0</v>
-      </c>
-      <c r="U120">
-        <v>0</v>
-      </c>
-      <c r="V120">
-        <v>0</v>
-      </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A121">
-        <v>0</v>
-      </c>
-      <c r="I121" s="7">
-        <v>118</v>
-      </c>
-      <c r="S121">
-        <v>0</v>
-      </c>
-      <c r="T121">
-        <v>0</v>
-      </c>
-      <c r="U121">
-        <v>0</v>
-      </c>
-      <c r="V121">
-        <v>0</v>
-      </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="I122" s="7">
-        <v>119</v>
-      </c>
-      <c r="S122">
-        <v>0</v>
-      </c>
-      <c r="T122">
-        <v>0</v>
-      </c>
-      <c r="U122">
-        <v>0</v>
-      </c>
-      <c r="V122">
-        <v>0</v>
-      </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A123">
-        <v>0</v>
-      </c>
-      <c r="I123" s="7">
-        <v>120</v>
-      </c>
-      <c r="S123">
-        <v>0</v>
-      </c>
-      <c r="T123">
-        <v>0</v>
-      </c>
-      <c r="U123">
-        <v>0</v>
-      </c>
-      <c r="V123">
-        <v>0</v>
-      </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A124">
-        <v>0</v>
-      </c>
-      <c r="I124" s="7">
-        <v>121</v>
-      </c>
-      <c r="S124">
-        <v>0</v>
-      </c>
-      <c r="T124">
-        <v>0</v>
-      </c>
-      <c r="U124">
-        <v>0</v>
-      </c>
-      <c r="V124">
-        <v>0</v>
-      </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A125">
-        <v>0</v>
-      </c>
-      <c r="I125" s="7">
-        <v>122</v>
-      </c>
-      <c r="S125">
-        <v>0</v>
-      </c>
-      <c r="T125">
-        <v>0</v>
-      </c>
-      <c r="U125">
-        <v>0</v>
-      </c>
-      <c r="V125">
-        <v>0</v>
-      </c>
-      <c r="W125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A126">
-        <v>0</v>
-      </c>
-      <c r="I126" s="7">
-        <v>123</v>
-      </c>
-      <c r="S126">
-        <v>0</v>
-      </c>
-      <c r="T126">
-        <v>0</v>
-      </c>
-      <c r="U126">
-        <v>0</v>
-      </c>
-      <c r="V126">
-        <v>0</v>
-      </c>
-      <c r="W126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="I127" s="7">
-        <v>124</v>
-      </c>
-      <c r="S127">
-        <v>0</v>
-      </c>
-      <c r="T127">
-        <v>0</v>
-      </c>
-      <c r="U127">
-        <v>0</v>
-      </c>
-      <c r="V127">
-        <v>0</v>
-      </c>
-      <c r="W127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A128">
-        <v>0</v>
-      </c>
-      <c r="I128" s="7">
-        <v>125</v>
-      </c>
-      <c r="S128">
-        <v>0</v>
-      </c>
-      <c r="T128">
-        <v>0</v>
-      </c>
-      <c r="U128">
-        <v>0</v>
-      </c>
-      <c r="V128">
-        <v>0</v>
-      </c>
-      <c r="W128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A129">
-        <v>0</v>
-      </c>
-      <c r="I129" s="7">
-        <v>126</v>
-      </c>
-      <c r="S129">
-        <v>0</v>
-      </c>
-      <c r="T129">
-        <v>0</v>
-      </c>
-      <c r="U129">
-        <v>0</v>
-      </c>
-      <c r="V129">
-        <v>0</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A130">
-        <v>0</v>
-      </c>
-      <c r="I130" s="7">
-        <v>127</v>
-      </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
-      <c r="T130">
-        <v>0</v>
-      </c>
-      <c r="U130">
-        <v>0</v>
-      </c>
-      <c r="V130">
-        <v>0</v>
-      </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A131">
-        <v>0</v>
-      </c>
-      <c r="I131" s="7">
-        <v>128</v>
-      </c>
-      <c r="S131">
-        <v>0</v>
-      </c>
-      <c r="T131">
-        <v>0</v>
-      </c>
-      <c r="U131">
-        <v>0</v>
-      </c>
-      <c r="V131">
-        <v>0</v>
-      </c>
-      <c r="W131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A132">
-        <v>0</v>
-      </c>
-      <c r="I132" s="7">
-        <v>129</v>
-      </c>
-      <c r="S132">
-        <v>0</v>
-      </c>
-      <c r="T132">
-        <v>0</v>
-      </c>
-      <c r="U132">
-        <v>0</v>
-      </c>
-      <c r="V132">
-        <v>0</v>
-      </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A133">
-        <v>0</v>
-      </c>
-      <c r="I133" s="7">
-        <v>130</v>
-      </c>
-      <c r="S133">
-        <v>0</v>
-      </c>
-      <c r="T133">
-        <v>0</v>
-      </c>
-      <c r="U133">
-        <v>0</v>
-      </c>
-      <c r="V133">
-        <v>0</v>
-      </c>
-      <c r="W133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A134">
-        <v>0</v>
-      </c>
-      <c r="I134" s="7">
-        <v>131</v>
-      </c>
-      <c r="S134">
-        <v>0</v>
-      </c>
-      <c r="T134">
-        <v>0</v>
-      </c>
-      <c r="U134">
-        <v>0</v>
-      </c>
-      <c r="V134">
-        <v>0</v>
-      </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A135">
-        <v>0</v>
-      </c>
-      <c r="I135" s="7">
-        <v>132</v>
-      </c>
-      <c r="S135">
-        <v>0</v>
-      </c>
-      <c r="T135">
-        <v>0</v>
-      </c>
-      <c r="U135">
-        <v>0</v>
-      </c>
-      <c r="V135">
-        <v>0</v>
-      </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A136">
-        <v>0</v>
-      </c>
-      <c r="I136" s="7">
-        <v>133</v>
-      </c>
-      <c r="S136">
-        <v>0</v>
-      </c>
-      <c r="T136">
-        <v>0</v>
-      </c>
-      <c r="U136">
-        <v>0</v>
-      </c>
-      <c r="V136">
-        <v>0</v>
-      </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A137">
-        <v>0</v>
-      </c>
-      <c r="I137" s="7">
-        <v>134</v>
-      </c>
-      <c r="S137">
-        <v>0</v>
-      </c>
-      <c r="T137">
-        <v>0</v>
-      </c>
-      <c r="U137">
-        <v>0</v>
-      </c>
-      <c r="V137">
-        <v>0</v>
-      </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A138">
-        <v>0</v>
-      </c>
-      <c r="I138" s="7">
-        <v>135</v>
-      </c>
-      <c r="S138">
-        <v>0</v>
-      </c>
-      <c r="T138">
-        <v>0</v>
-      </c>
-      <c r="U138">
-        <v>0</v>
-      </c>
-      <c r="V138">
-        <v>0</v>
-      </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="I139" s="7">
-        <v>136</v>
-      </c>
-      <c r="S139">
-        <v>0</v>
-      </c>
-      <c r="T139">
-        <v>0</v>
-      </c>
-      <c r="U139">
-        <v>0</v>
-      </c>
-      <c r="V139">
-        <v>0</v>
-      </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="I140" s="7">
-        <v>137</v>
-      </c>
-      <c r="S140">
-        <v>0</v>
-      </c>
-      <c r="T140">
-        <v>0</v>
-      </c>
-      <c r="U140">
-        <v>0</v>
-      </c>
-      <c r="V140">
-        <v>0</v>
-      </c>
-      <c r="W140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="I141" s="7">
-        <v>138</v>
-      </c>
-      <c r="S141">
-        <v>0</v>
-      </c>
-      <c r="T141">
-        <v>0</v>
-      </c>
-      <c r="U141">
-        <v>0</v>
-      </c>
-      <c r="V141">
-        <v>0</v>
-      </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="I142" s="7">
-        <v>139</v>
-      </c>
-      <c r="S142">
-        <v>0</v>
-      </c>
-      <c r="T142">
-        <v>0</v>
-      </c>
-      <c r="U142">
-        <v>0</v>
-      </c>
-      <c r="V142">
-        <v>0</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="I143" s="7">
-        <v>140</v>
-      </c>
-      <c r="S143">
-        <v>0</v>
-      </c>
-      <c r="T143">
-        <v>0</v>
-      </c>
-      <c r="U143">
-        <v>0</v>
-      </c>
-      <c r="V143">
-        <v>0</v>
-      </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="I144" s="7">
-        <v>141</v>
-      </c>
-      <c r="S144">
-        <v>0</v>
-      </c>
-      <c r="T144">
-        <v>0</v>
-      </c>
-      <c r="U144">
-        <v>0</v>
-      </c>
-      <c r="V144">
-        <v>0</v>
-      </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I145" s="7">
-        <v>142</v>
-      </c>
-      <c r="S145">
-        <v>0</v>
-      </c>
-      <c r="T145">
-        <v>0</v>
-      </c>
-      <c r="U145">
-        <v>0</v>
-      </c>
-      <c r="V145">
-        <v>0</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I146" s="7">
-        <v>143</v>
-      </c>
-      <c r="S146">
-        <v>0</v>
-      </c>
-      <c r="T146">
-        <v>0</v>
-      </c>
-      <c r="U146">
-        <v>0</v>
-      </c>
-      <c r="V146">
-        <v>0</v>
-      </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I147" s="7">
-        <v>144</v>
-      </c>
-      <c r="S147">
-        <v>0</v>
-      </c>
-      <c r="T147">
-        <v>0</v>
-      </c>
-      <c r="U147">
-        <v>0</v>
-      </c>
-      <c r="V147">
-        <v>0</v>
-      </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I148" s="7">
-        <v>145</v>
-      </c>
-      <c r="S148">
-        <v>0</v>
-      </c>
-      <c r="T148">
-        <v>0</v>
-      </c>
-      <c r="U148">
-        <v>0</v>
-      </c>
-      <c r="V148">
-        <v>0</v>
-      </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I149" s="7">
-        <v>146</v>
-      </c>
-      <c r="S149">
-        <v>0</v>
-      </c>
-      <c r="T149">
-        <v>0</v>
-      </c>
-      <c r="U149">
-        <v>0</v>
-      </c>
-      <c r="V149">
-        <v>0</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I150" s="7">
-        <v>147</v>
-      </c>
-      <c r="S150">
-        <v>0</v>
-      </c>
-      <c r="T150">
-        <v>0</v>
-      </c>
-      <c r="U150">
-        <v>0</v>
-      </c>
-      <c r="V150">
-        <v>0</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I151" s="7">
-        <v>148</v>
-      </c>
-      <c r="S151">
-        <v>0</v>
-      </c>
-      <c r="T151">
-        <v>0</v>
-      </c>
-      <c r="U151">
-        <v>0</v>
-      </c>
-      <c r="V151">
-        <v>0</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I152" s="7">
-        <v>149</v>
-      </c>
-      <c r="S152">
-        <v>0</v>
-      </c>
-      <c r="T152">
-        <v>0</v>
-      </c>
-      <c r="U152">
-        <v>0</v>
-      </c>
-      <c r="V152">
-        <v>0</v>
-      </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I153" s="7">
-        <v>150</v>
-      </c>
-      <c r="S153">
-        <v>0</v>
-      </c>
-      <c r="T153">
-        <v>0</v>
-      </c>
-      <c r="U153">
-        <v>0</v>
-      </c>
-      <c r="V153">
-        <v>0</v>
-      </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I154" s="7">
-        <v>151</v>
-      </c>
-      <c r="S154">
-        <v>0</v>
-      </c>
-      <c r="T154">
-        <v>0</v>
-      </c>
-      <c r="U154">
-        <v>0</v>
-      </c>
-      <c r="V154">
-        <v>0</v>
-      </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I155" s="7">
-        <v>152</v>
-      </c>
-      <c r="S155">
-        <v>0</v>
-      </c>
-      <c r="T155">
-        <v>0</v>
-      </c>
-      <c r="U155">
-        <v>0</v>
-      </c>
-      <c r="V155">
-        <v>0</v>
-      </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I156" s="7">
-        <v>153</v>
-      </c>
-      <c r="S156">
-        <v>0</v>
-      </c>
-      <c r="T156">
-        <v>0</v>
-      </c>
-      <c r="U156">
-        <v>0</v>
-      </c>
-      <c r="V156">
-        <v>0</v>
-      </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I157" s="7">
-        <v>154</v>
-      </c>
-      <c r="S157">
-        <v>0</v>
-      </c>
-      <c r="T157">
-        <v>0</v>
-      </c>
-      <c r="U157">
-        <v>0</v>
-      </c>
-      <c r="V157">
-        <v>0</v>
-      </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I158" s="7">
-        <v>155</v>
-      </c>
-      <c r="S158">
-        <v>0</v>
-      </c>
-      <c r="T158">
-        <v>0</v>
-      </c>
-      <c r="U158">
-        <v>0</v>
-      </c>
-      <c r="V158">
-        <v>0</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I159" s="7">
-        <v>156</v>
-      </c>
-      <c r="S159">
-        <v>0</v>
-      </c>
-      <c r="T159">
-        <v>0</v>
-      </c>
-      <c r="U159">
-        <v>0</v>
-      </c>
-      <c r="V159">
-        <v>0</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I160" s="7">
-        <v>157</v>
-      </c>
-      <c r="S160">
-        <v>0</v>
-      </c>
-      <c r="T160">
-        <v>0</v>
-      </c>
-      <c r="U160">
-        <v>0</v>
-      </c>
-      <c r="V160">
-        <v>0</v>
-      </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I161" s="7">
-        <v>158</v>
-      </c>
-      <c r="S161">
-        <v>0</v>
-      </c>
-      <c r="T161">
-        <v>0</v>
-      </c>
-      <c r="U161">
-        <v>0</v>
-      </c>
-      <c r="V161">
-        <v>0</v>
-      </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I162" s="7">
-        <v>159</v>
-      </c>
-      <c r="S162">
-        <v>0</v>
-      </c>
-      <c r="T162">
-        <v>0</v>
-      </c>
-      <c r="U162">
-        <v>0</v>
-      </c>
-      <c r="V162">
-        <v>0</v>
-      </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I163" s="7">
-        <v>160</v>
-      </c>
-      <c r="S163">
-        <v>0</v>
-      </c>
-      <c r="T163">
-        <v>0</v>
-      </c>
-      <c r="U163">
-        <v>0</v>
-      </c>
-      <c r="V163">
-        <v>0</v>
-      </c>
-      <c r="W163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I164" s="7">
-        <v>161</v>
-      </c>
-      <c r="S164">
-        <v>0</v>
-      </c>
-      <c r="T164">
-        <v>0</v>
-      </c>
-      <c r="U164">
-        <v>0</v>
-      </c>
-      <c r="V164">
-        <v>0</v>
-      </c>
-      <c r="W164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I165" s="7">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="166" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I166" s="7">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I167" s="7">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="168" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I168" s="7">
-        <v>165</v>
-      </c>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I142" s="7"/>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I143" s="7"/>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I144" s="7"/>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I145" s="7"/>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I146" s="7"/>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I147" s="7"/>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I149" s="7"/>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I150" s="7"/>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I151" s="7"/>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I152" s="7"/>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I153" s="7"/>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I154" s="7"/>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I155" s="7"/>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I156" s="7"/>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I157" s="7"/>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I158" s="7"/>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I159" s="7"/>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I160" s="7"/>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I161" s="7"/>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I162" s="7"/>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I163" s="7"/>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I164" s="7"/>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I165" s="7"/>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I166" s="7"/>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I167" s="7"/>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I168" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9098,7 +7048,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:G18 H2:I17 E19:H28 H18 E29:F29 D38 J165:T168 E32:F35 G29:H35 J1:W64 J75:W164 E75:I168 E36:H64 I18:I64">
+  <conditionalFormatting sqref="E1:G18 H2:I17 E19:H28 H18 E29:F29 D38 J165:T168 E32:F35 G29:H35 J75:W164 E75:I168 E36:H64 I18:I64 J1:W64">
     <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -9122,7 +7072,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10541,8 +8491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60973B66-1069-4223-975B-856C2A387ACC}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10908,45 +8858,405 @@
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="P9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>-1</v>
+      </c>
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>-1</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A16:O30 B8:O15 B3:O3 B5:P7">
+  <conditionalFormatting sqref="A16:O30 B3:O3 B5:P15">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>-1</formula>
     </cfRule>

--- a/管理/素材用エクセル/Data.xlsx
+++ b/管理/素材用エクセル/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A0AA4-0366-4220-B45F-749B2BC258FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49752B-2E76-42C4-8943-AD1F8CBAD2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD18CAD-EDE6-4554-B9E1-5C7CD2CA184A}">
   <dimension ref="A1:W168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -7072,7 +7072,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/管理/素材用エクセル/Data.xlsx
+++ b/管理/素材用エクセル/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49752B-2E76-42C4-8943-AD1F8CBAD2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F434CE-909C-4F41-A069-D217CCFBAF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
@@ -2211,7 +2211,7 @@
   <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2224,6 +2224,8 @@
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="23.125" customWidth="1"/>
+    <col min="12" max="12" width="20.625" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
     <col min="18" max="18" width="12.625" customWidth="1"/>
   </cols>

--- a/管理/素材用エクセル/Data.xlsx
+++ b/管理/素材用エクセル/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F434CE-909C-4F41-A069-D217CCFBAF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC5184-D5D4-4AF9-BE8A-D21FDE52376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
@@ -2211,7 +2211,7 @@
   <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3105,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3176,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>3</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -3318,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -3460,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
